--- a/biology/Biologie cellulaire et moléculaire/Canal_potassique/Canal_potassique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Canal_potassique/Canal_potassique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En biologie cellulaire, les canaux potassiques constituent le type le plus répandu de canal ionique et sont présents dans pratiquement tous les organismes vivants[1]. Ils forment des pores traversant les membranes cellulaires et sont sélectifs aux ions potassium. On les trouve dans la plupart des types de cellules et ils contrôlent un large éventail de fonctions cellulaires[2],[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En biologie cellulaire, les canaux potassiques constituent le type le plus répandu de canal ionique et sont présents dans pratiquement tous les organismes vivants. Ils forment des pores traversant les membranes cellulaires et sont sélectifs aux ions potassium. On les trouve dans la plupart des types de cellules et ils contrôlent un large éventail de fonctions cellulaires,. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les cellules excitables comme les neurones, ils sont responsables des potentiels d'action et définissent le potentiel membranaire de repos.
 Contribuant à la régulation de la durée du potentiel d'action dans le muscle cardiaque, le dysfonctionnement des canaux potassiques peut provoquer des arythmies mortelles.
@@ -544,7 +558,9 @@
           <t>Classes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe quatre grandes classes de canaux potassiques :
 Les canaux potassiques activés par le calcium, ouverts en réponse à la présence d'ions calcium (ou d'autres molécules activatrices).
